--- a/output/ADAM_24119462000190.xlsx
+++ b/output/ADAM_24119462000190.xlsx
@@ -1010,10 +1010,10 @@
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.9004186000000001</v>
+        <v>0.8897252</v>
       </c>
       <c r="C57">
-        <v>0.03735647649851637</v>
+        <v>0.03151941105104639</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_24119462000190.xlsx
+++ b/output/ADAM_24119462000190.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM ADVANCED 1 FICFI MM CRÉDITO PRIVADO IE</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42490</v>
       </c>
@@ -411,609 +405,444 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42521</v>
       </c>
       <c r="B3">
         <v>-0.01409839999999996</v>
       </c>
-      <c r="C3">
-        <v>-0.01409839999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42551</v>
       </c>
       <c r="B4">
-        <v>0.04242790000000007</v>
-      </c>
-      <c r="C4">
         <v>0.05733462649822263</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42582</v>
       </c>
       <c r="B5">
-        <v>0.1112545</v>
-      </c>
-      <c r="C5">
         <v>0.06602528577755828</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42613</v>
       </c>
       <c r="B6">
-        <v>0.1255911999999999</v>
-      </c>
-      <c r="C6">
         <v>0.01290136507883655</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42643</v>
       </c>
       <c r="B7">
-        <v>0.1757850000000001</v>
-      </c>
-      <c r="C7">
         <v>0.04459327684864656</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42674</v>
       </c>
       <c r="B8">
-        <v>0.1628669</v>
-      </c>
-      <c r="C8">
         <v>-0.01098678755044502</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42704</v>
       </c>
       <c r="B9">
-        <v>0.1838499</v>
-      </c>
-      <c r="C9">
         <v>0.0180441974915615</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42735</v>
       </c>
       <c r="B10">
-        <v>0.2901704000000001</v>
-      </c>
-      <c r="C10">
         <v>0.08980910502252026</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42766</v>
       </c>
       <c r="B11">
-        <v>0.4244511</v>
-      </c>
-      <c r="C11">
         <v>0.1040798176736963</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42794</v>
       </c>
       <c r="B12">
-        <v>0.5319258</v>
-      </c>
-      <c r="C12">
         <v>0.07544990487914971</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42825</v>
       </c>
       <c r="B13">
-        <v>0.575499</v>
-      </c>
-      <c r="C13">
         <v>0.02844341416535978</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42855</v>
       </c>
       <c r="B14">
-        <v>0.5508523999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.01564367860595284</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42886</v>
       </c>
       <c r="B15">
-        <v>0.3977584000000001</v>
-      </c>
-      <c r="C15">
         <v>-0.09871603513009997</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42916</v>
       </c>
       <c r="B16">
-        <v>0.3975029999999999</v>
-      </c>
-      <c r="C16">
         <v>-0.0001827211340673651</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42947</v>
       </c>
       <c r="B17">
-        <v>0.4688892</v>
-      </c>
-      <c r="C17">
         <v>0.05108124991502705</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42978</v>
       </c>
       <c r="B18">
-        <v>0.5117613000000001</v>
-      </c>
-      <c r="C18">
         <v>0.02918674873503058</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43008</v>
       </c>
       <c r="B19">
-        <v>0.5955461</v>
-      </c>
-      <c r="C19">
         <v>0.05542197700126339</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43039</v>
       </c>
       <c r="B20">
-        <v>0.6189659000000001</v>
-      </c>
-      <c r="C20">
         <v>0.01467823461822881</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43069</v>
       </c>
       <c r="B21">
-        <v>0.5972198</v>
-      </c>
-      <c r="C21">
         <v>-0.01343209267100687</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43100</v>
       </c>
       <c r="B22">
-        <v>0.6136311999999999</v>
-      </c>
-      <c r="C22">
         <v>0.01027497906048991</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
       <c r="B23">
-        <v>0.8444252999999999</v>
-      </c>
-      <c r="C23">
         <v>0.1430277872663841</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43159</v>
       </c>
       <c r="B24">
-        <v>0.8829996</v>
-      </c>
-      <c r="C24">
         <v>0.02091399418561446</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43190</v>
       </c>
       <c r="B25">
-        <v>0.7949141</v>
-      </c>
-      <c r="C25">
         <v>-0.04677935141356382</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43220</v>
       </c>
       <c r="B26">
-        <v>0.8471032999999999</v>
-      </c>
-      <c r="C26">
         <v>0.02907615467503422</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43251</v>
       </c>
       <c r="B27">
-        <v>0.6947905000000001</v>
-      </c>
-      <c r="C27">
         <v>-0.08246035833512932</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43281</v>
       </c>
       <c r="B28">
-        <v>0.5776484</v>
-      </c>
-      <c r="C28">
         <v>-0.06911892649858498</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43312</v>
       </c>
       <c r="B29">
-        <v>0.6091017999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01993688834597118</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43343</v>
       </c>
       <c r="B30">
-        <v>0.6043007</v>
-      </c>
-      <c r="C30">
         <v>-0.002983714268419702</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
       <c r="B31">
-        <v>0.5992462000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.003150593900507537</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43404</v>
       </c>
       <c r="B32">
-        <v>0.6445228999999999</v>
-      </c>
-      <c r="C32">
         <v>0.02831127564974034</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43434</v>
       </c>
       <c r="B33">
-        <v>0.6600269000000001</v>
-      </c>
-      <c r="C33">
         <v>0.009427658319625776</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43465</v>
       </c>
       <c r="B34">
-        <v>0.6840075999999999</v>
-      </c>
-      <c r="C34">
         <v>0.01444597072493203</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43496</v>
       </c>
       <c r="B35">
-        <v>0.7115695</v>
-      </c>
-      <c r="C35">
         <v>0.01636685012585448</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43524</v>
       </c>
       <c r="B36">
-        <v>0.7041206</v>
-      </c>
-      <c r="C36">
         <v>-0.004352087367763935</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43555</v>
       </c>
       <c r="B37">
-        <v>0.7240555</v>
-      </c>
-      <c r="C37">
         <v>0.01169805705065707</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43585</v>
       </c>
       <c r="B38">
-        <v>0.7502057</v>
-      </c>
-      <c r="C38">
         <v>0.01516784117448666</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43616</v>
       </c>
       <c r="B39">
-        <v>0.8049390999999999</v>
-      </c>
-      <c r="C39">
         <v>0.03127255270623319</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43646</v>
       </c>
       <c r="B40">
-        <v>0.7670808</v>
-      </c>
-      <c r="C40">
         <v>-0.0209748351066249</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43677</v>
       </c>
       <c r="B41">
-        <v>0.7563141</v>
-      </c>
-      <c r="C41">
         <v>-0.006092930215754744</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43708</v>
       </c>
       <c r="B42">
-        <v>0.8220026</v>
-      </c>
-      <c r="C42">
         <v>0.03740133954399161</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43738</v>
       </c>
       <c r="B43">
-        <v>0.8111113000000001</v>
-      </c>
-      <c r="C43">
         <v>-0.005977653379857895</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43769</v>
       </c>
       <c r="B44">
-        <v>0.8069598</v>
-      </c>
-      <c r="C44">
         <v>-0.002292239024735854</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43799</v>
       </c>
       <c r="B45">
-        <v>0.7930716</v>
-      </c>
-      <c r="C45">
         <v>-0.007685948519718044</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43830</v>
       </c>
       <c r="B46">
-        <v>0.7699948000000001</v>
-      </c>
-      <c r="C46">
         <v>-0.01286998243684179</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43861</v>
       </c>
       <c r="B47">
-        <v>0.8204473999999999</v>
-      </c>
-      <c r="C47">
         <v>0.02850437752698465</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43890</v>
       </c>
       <c r="B48">
-        <v>0.8679794000000001</v>
-      </c>
-      <c r="C48">
         <v>0.02611006503126667</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43921</v>
       </c>
       <c r="B49">
-        <v>0.9038956</v>
-      </c>
-      <c r="C49">
         <v>0.01922729982996607</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43951</v>
       </c>
       <c r="B50">
-        <v>0.9031785999999999</v>
-      </c>
-      <c r="C50">
         <v>-0.0003765962797540601</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43982</v>
       </c>
       <c r="B51">
-        <v>0.9223619000000001</v>
-      </c>
-      <c r="C51">
         <v>0.01007961102547084</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44012</v>
       </c>
       <c r="B52">
-        <v>0.9036687999999999</v>
-      </c>
-      <c r="C52">
         <v>-0.009724027510116695</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44043</v>
       </c>
       <c r="B53">
-        <v>0.9265914</v>
-      </c>
-      <c r="C53">
         <v>0.01204127524703869</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44074</v>
       </c>
       <c r="B54">
-        <v>0.8869076</v>
-      </c>
-      <c r="C54">
         <v>-0.02059793270124632</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44104</v>
       </c>
       <c r="B55">
-        <v>0.8132244</v>
-      </c>
-      <c r="C55">
         <v>-0.03904971287412273</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44135</v>
       </c>
       <c r="B56">
-        <v>0.8319821999999999</v>
-      </c>
-      <c r="C56">
         <v>0.01034499646044917</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.8897252</v>
-      </c>
-      <c r="C57">
-        <v>0.03151941105104639</v>
+        <v>0.02556520472742596</v>
       </c>
     </row>
   </sheetData>
